--- a/Clusters.xlsx
+++ b/Clusters.xlsx
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>3</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>3</v>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>3</v>
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>3</v>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
         <v>3</v>
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -1899,7 +1899,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -1925,7 +1925,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -2151,7 +2151,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E64" t="n">
         <v>5</v>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
@@ -2568,7 +2568,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -2711,7 +2711,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -2849,7 +2849,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -2916,7 +2916,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -2978,7 +2978,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E86" t="n">
         <v>6</v>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E87" t="n">
         <v>6</v>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
         <v>6</v>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E89" t="n">
         <v>6</v>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E90" t="n">
         <v>6</v>
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E91" t="n">
         <v>6</v>
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E92" t="n">
         <v>6</v>
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E93" t="n">
         <v>6</v>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E94" t="n">
         <v>6</v>
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E95" t="n">
         <v>6</v>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96" t="n">
         <v>6</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E97" t="n">
         <v>6</v>
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E98" t="n">
         <v>6</v>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E99" t="n">
         <v>6</v>
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E100" t="n">
         <v>6</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E101" t="n">
         <v>6</v>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E102" t="n">
         <v>6</v>
@@ -3474,7 +3474,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E103" t="n">
         <v>6</v>
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E104" t="n">
         <v>6</v>
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E105" t="n">
         <v>6</v>
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E106" t="n">
         <v>6</v>
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E107" t="n">
         <v>6</v>
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E111" t="n">
         <v>7</v>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E112" t="n">
         <v>7</v>
@@ -3776,7 +3776,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -3806,7 +3806,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E114" t="n">
         <v>7</v>
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E115" t="n">
         <v>7</v>
@@ -3878,7 +3878,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116" t="n">
         <v>7</v>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E118" t="n">
         <v>7</v>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E119" t="n">
         <v>7</v>
@@ -3989,7 +3989,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E121" t="n">
         <v>7</v>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
         <v>7</v>
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E123" t="n">
         <v>7</v>
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E124" t="n">
         <v>7</v>
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E125" t="n">
         <v>7</v>
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -4393,7 +4393,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -4511,7 +4511,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -4831,7 +4831,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -4883,7 +4883,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -4910,7 +4910,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -4963,7 +4963,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -4989,7 +4989,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -5018,7 +5018,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -5049,7 +5049,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -5193,7 +5193,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -5318,7 +5318,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
         <v>9</v>
@@ -5344,7 +5344,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
         <v>9</v>
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
         <v>9</v>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
         <v>9</v>
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
         <v>9</v>
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E171" t="n">
         <v>9</v>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E172" t="n">
         <v>9</v>
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173" t="n">
         <v>9</v>
@@ -5560,7 +5560,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -5591,7 +5591,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -5753,7 +5753,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -5894,7 +5894,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -5924,7 +5924,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -5959,7 +5959,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -5988,7 +5988,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -6014,7 +6014,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E189" t="n">
         <v>11</v>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
         <v>11</v>
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E191" t="n">
         <v>11</v>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E192" t="n">
         <v>11</v>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E193" t="n">
         <v>11</v>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E194" t="n">
         <v>11</v>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E195" t="n">
         <v>11</v>
@@ -6233,7 +6233,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E196" t="n">
         <v>11</v>
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E197" t="n">
         <v>11</v>
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E198" t="n">
         <v>11</v>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E199" t="n">
         <v>11</v>
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E200" t="n">
         <v>11</v>
@@ -6374,7 +6374,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E201" t="n">
         <v>11</v>
@@ -6404,7 +6404,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E202" t="n">
         <v>11</v>
@@ -6431,7 +6431,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E203" t="n">
         <v>12</v>
@@ -6458,7 +6458,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E204" t="n">
         <v>12</v>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E205" t="n">
         <v>12</v>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E206" t="n">
         <v>12</v>
@@ -6558,7 +6558,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E207" t="n">
         <v>12</v>
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E208" t="n">
         <v>12</v>
@@ -6613,7 +6613,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E209" t="n">
         <v>12</v>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E210" t="n">
         <v>12</v>
@@ -6665,7 +6665,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E211" t="n">
         <v>12</v>
@@ -6691,7 +6691,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E212" t="n">
         <v>12</v>
@@ -6719,7 +6719,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E213" t="n">
         <v>12</v>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E214" t="n">
         <v>12</v>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E215" t="n">
         <v>12</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E216" t="n">
         <v>12</v>
@@ -6838,7 +6838,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E217" t="n">
         <v>12</v>
@@ -6864,7 +6864,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E219" t="n">
         <v>14</v>
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220" t="n">
         <v>14</v>
@@ -6955,7 +6955,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221" t="n">
         <v>14</v>
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" t="n">
         <v>14</v>
@@ -7014,7 +7014,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E223" t="n">
         <v>14</v>
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E224" t="n">
         <v>14</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E225" t="n">
         <v>14</v>
@@ -7098,7 +7098,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226" t="n">
         <v>14</v>
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227" t="n">
         <v>14</v>
@@ -7161,7 +7161,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E228" t="n">
         <v>14</v>
@@ -7200,7 +7200,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E229" t="n">
         <v>15</v>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E230" t="n">
         <v>15</v>
@@ -7255,7 +7255,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231" t="n">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E232" t="n">
         <v>15</v>
@@ -7313,7 +7313,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E233" t="n">
         <v>15</v>
@@ -7359,7 +7359,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E234" t="n">
         <v>15</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E235" t="n">
         <v>15</v>
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E236" t="n">
         <v>15</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E237" t="n">
         <v>15</v>
@@ -7473,7 +7473,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E238" t="n">
         <v>15</v>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239" t="n">
         <v>15</v>
@@ -7531,7 +7531,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E240" t="n">
         <v>15</v>
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E241" t="n">
         <v>16</v>
@@ -7591,7 +7591,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E242" t="n">
         <v>16</v>
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E243" t="n">
         <v>16</v>
@@ -7644,7 +7644,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E244" t="n">
         <v>16</v>
@@ -7670,7 +7670,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E245" t="n">
         <v>16</v>
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E246" t="n">
         <v>16</v>
@@ -7730,7 +7730,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E247" t="n">
         <v>16</v>
@@ -7758,7 +7758,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E248" t="n">
         <v>16</v>
@@ -7791,7 +7791,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E249" t="n">
         <v>16</v>
@@ -7818,7 +7818,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E250" t="n">
         <v>16</v>
@@ -7844,7 +7844,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E251" t="n">
         <v>16</v>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E252" t="n">
         <v>16</v>
@@ -7904,7 +7904,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E253" t="n">
         <v>16</v>
@@ -7931,7 +7931,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E254" t="n">
         <v>16</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E255" t="n">
         <v>16</v>
@@ -7983,7 +7983,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E256" t="n">
         <v>16</v>
@@ -8009,7 +8009,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E257" t="n">
         <v>16</v>
@@ -8042,7 +8042,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E258" t="n">
         <v>16</v>
@@ -8070,7 +8070,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E259" t="n">
         <v>16</v>
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E260" t="n">
         <v>16</v>
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E261" t="n">
         <v>16</v>
@@ -8153,7 +8153,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E262" t="n">
         <v>16</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E263" t="n">
         <v>16</v>
@@ -8211,7 +8211,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E264" t="n">
         <v>16</v>
@@ -8240,7 +8240,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E265" t="n">
         <v>16</v>
@@ -8266,7 +8266,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E266" t="n">
         <v>16</v>
@@ -8294,7 +8294,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E267" t="n">
         <v>17</v>
@@ -8322,7 +8322,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E268" t="n">
         <v>17</v>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E269" t="n">
         <v>17</v>
@@ -8374,7 +8374,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E270" t="n">
         <v>18</v>
@@ -8400,7 +8400,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E271" t="n">
         <v>18</v>
@@ -8427,7 +8427,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E272" t="n">
         <v>19</v>
@@ -8454,7 +8454,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E273" t="n">
         <v>19</v>
@@ -8480,7 +8480,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E274" t="n">
         <v>19</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E275" t="n">
         <v>19</v>
@@ -8540,7 +8540,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E276" t="n">
         <v>19</v>
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E277" t="n">
         <v>19</v>
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E278" t="n">
         <v>20</v>
@@ -8624,7 +8624,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E279" t="n">
         <v>20</v>
@@ -8653,7 +8653,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E280" t="n">
         <v>20</v>
@@ -8698,7 +8698,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E281" t="n">
         <v>20</v>
@@ -8724,7 +8724,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E282" t="n">
         <v>20</v>
@@ -8750,7 +8750,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E283" t="n">
         <v>20</v>
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E284" t="n">
         <v>20</v>
@@ -8805,7 +8805,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E285" t="n">
         <v>20</v>
@@ -8836,7 +8836,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E286" t="n">
         <v>20</v>
@@ -8863,7 +8863,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E287" t="n">
         <v>20</v>
@@ -8889,7 +8889,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E288" t="n">
         <v>21</v>
@@ -8917,7 +8917,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E289" t="n">
         <v>21</v>
@@ -8950,7 +8950,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E290" t="n">
         <v>21</v>
@@ -8989,7 +8989,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E291" t="n">
         <v>21</v>
@@ -9017,7 +9017,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E292" t="n">
         <v>21</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E293" t="n">
         <v>21</v>
@@ -9073,7 +9073,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E294" t="n">
         <v>21</v>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E295" t="n">
         <v>21</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E296" t="n">
         <v>21</v>
@@ -9153,7 +9153,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E297" t="n">
         <v>21</v>
@@ -9180,7 +9180,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E298" t="n">
         <v>21</v>
@@ -9216,7 +9216,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E299" t="n">
         <v>21</v>
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E300" t="n">
         <v>21</v>
@@ -9274,7 +9274,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E301" t="n">
         <v>21</v>
@@ -9300,7 +9300,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E302" t="n">
         <v>22</v>
@@ -9338,7 +9338,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E303" t="n">
         <v>22</v>
@@ -9368,7 +9368,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E304" t="n">
         <v>22</v>
@@ -9395,7 +9395,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E305" t="n">
         <v>22</v>
@@ -9425,7 +9425,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E306" t="n">
         <v>22</v>
@@ -9457,7 +9457,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E307" t="n">
         <v>22</v>
@@ -9487,7 +9487,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E308" t="n">
         <v>22</v>
@@ -9517,7 +9517,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E309" t="n">
         <v>22</v>
@@ -9547,7 +9547,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E310" t="n">
         <v>22</v>
@@ -9573,7 +9573,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E311" t="n">
         <v>22</v>
@@ -9599,7 +9599,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E312" t="n">
         <v>22</v>
@@ -9625,7 +9625,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E313" t="n">
         <v>22</v>
@@ -9652,7 +9652,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E314" t="n">
         <v>22</v>
@@ -9680,7 +9680,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E315" t="n">
         <v>22</v>
@@ -9709,7 +9709,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E316" t="n">
         <v>22</v>
@@ -9737,7 +9737,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E317" t="n">
         <v>22</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E318" t="n">
         <v>22</v>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E319" t="n">
         <v>22</v>
@@ -9825,7 +9825,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E320" t="n">
         <v>23</v>
@@ -9853,7 +9853,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E321" t="n">
         <v>23</v>
@@ -9879,7 +9879,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E322" t="n">
         <v>23</v>
@@ -9908,7 +9908,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E323" t="n">
         <v>23</v>
@@ -9934,7 +9934,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E324" t="n">
         <v>23</v>
@@ -9961,7 +9961,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E325" t="n">
         <v>23</v>
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E326" t="n">
         <v>23</v>
@@ -10017,7 +10017,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E327" t="n">
         <v>23</v>
@@ -10045,7 +10045,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E328" t="n">
         <v>23</v>
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E329" t="n">
         <v>23</v>
@@ -10122,7 +10122,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E330" t="n">
         <v>24</v>
@@ -10150,7 +10150,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E331" t="n">
         <v>24</v>
@@ -10181,7 +10181,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E332" t="n">
         <v>24</v>
@@ -10211,7 +10211,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E333" t="n">
         <v>24</v>
@@ -10240,7 +10240,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E334" t="n">
         <v>24</v>
@@ -10268,7 +10268,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E335" t="n">
         <v>25</v>
@@ -10301,7 +10301,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E336" t="n">
         <v>25</v>
@@ -10329,7 +10329,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E337" t="n">
         <v>25</v>
@@ -10357,7 +10357,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E338" t="n">
         <v>25</v>
@@ -10399,7 +10399,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E339" t="n">
         <v>25</v>
@@ -10429,7 +10429,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E340" t="n">
         <v>25</v>
@@ -10456,7 +10456,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E341" t="n">
         <v>25</v>
@@ -10482,7 +10482,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E342" t="n">
         <v>25</v>
@@ -10510,7 +10510,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E343" t="n">
         <v>25</v>
@@ -10541,7 +10541,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E344" t="n">
         <v>25</v>
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E345" t="n">
         <v>25</v>
@@ -10632,7 +10632,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E346" t="n">
         <v>25</v>
@@ -10669,7 +10669,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E347" t="n">
         <v>25</v>
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E348" t="n">
         <v>26</v>
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E349" t="n">
         <v>26</v>
@@ -10754,7 +10754,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E350" t="n">
         <v>26</v>
@@ -10780,7 +10780,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E351" t="n">
         <v>26</v>
@@ -10814,7 +10814,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E352" t="n">
         <v>26</v>
@@ -10842,7 +10842,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E353" t="n">
         <v>26</v>
@@ -10873,7 +10873,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E354" t="n">
         <v>26</v>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E355" t="n">
         <v>26</v>
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E356" t="n">
         <v>26</v>
@@ -10954,7 +10954,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E357" t="n">
         <v>26</v>
@@ -10983,7 +10983,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E358" t="n">
         <v>26</v>
@@ -11011,7 +11011,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E359" t="n">
         <v>26</v>
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E360" t="n">
         <v>26</v>
@@ -11072,7 +11072,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E361" t="n">
         <v>27</v>
@@ -11100,7 +11100,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E362" t="n">
         <v>27</v>
@@ -11126,7 +11126,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E363" t="n">
         <v>27</v>
@@ -11153,7 +11153,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E364" t="n">
         <v>27</v>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E365" t="n">
         <v>27</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E366" t="n">
         <v>27</v>
@@ -11233,7 +11233,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E367" t="n">
         <v>27</v>
@@ -11261,7 +11261,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E368" t="n">
         <v>27</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E369" t="n">
         <v>27</v>
@@ -11331,7 +11331,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E370" t="n">
         <v>28</v>
@@ -11369,7 +11369,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E371" t="n">
         <v>28</v>
@@ -11406,7 +11406,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E372" t="n">
         <v>28</v>
@@ -11432,7 +11432,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E373" t="n">
         <v>28</v>
@@ -11462,7 +11462,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E374" t="n">
         <v>28</v>
